--- a/experiments/SVM_humiact5_kp_feat_output/spine_based_distance_involved/performance_stats_20210516121119.xlsx
+++ b/experiments/SVM_humiact5_kp_feat_output/spine_based_distance_involved/performance_stats_20210516121119.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\poland\PW\Thesis\Projects\humiact-proj\experiments\humiact5_kp_feat_modeling_output\spine_based_distance_involved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\poland\PW\Thesis\Projects\humiact-proj\experiments\SVM_humiact5_kp_feat_output\spine_based_distance_involved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18D3BBC-42B6-4FFD-8AB7-5F51CCE6E2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1025C07B-CA41-4A1B-805C-AED25992B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -300,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,34 +434,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.88842688842688844</c:v>
+                  <c:v>0.88496188496188499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88981288981288986</c:v>
+                  <c:v>0.88496188496188499</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.88357588357588357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8856548856548857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87525987525987525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87941787941787941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89397089397089402</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.8787248787248787</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0.88426888426888428</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8925848925848926</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88496188496188499</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8863478863478863</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.89119889119889117</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89327789327789331</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8856548856548857</c:v>
+                  <c:v>0.88011088011088012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,34 +506,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.78762306610407873</c:v>
+                  <c:v>0.80590717299578063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77918424753867788</c:v>
+                  <c:v>0.80028129395218006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81715893108298177</c:v>
+                  <c:v>0.80450070323488043</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.810126582278481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81434599156118148</c:v>
+                  <c:v>0.82841068917018279</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.80590717299578063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79606188466947958</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.81293952180028128</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79465541490857949</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79606188466947958</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80028129395218006</c:v>
+                  <c:v>0.78340365682137836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79184247538677921</c:v>
+                  <c:v>0.80309423347398035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,34 +860,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81506849315068497</c:v>
+                  <c:v>0.87878787878787878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81506849315068497</c:v>
+                  <c:v>0.85106382978723405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83448275862068966</c:v>
+                  <c:v>0.83211678832116787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87096774193548387</c:v>
+                  <c:v>0.86861313868613144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87769784172661869</c:v>
+                  <c:v>0.85950413223140498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85039370078740162</c:v>
+                  <c:v>0.89230769230769236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9152542372881356</c:v>
+                  <c:v>0.86131386861313863</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8515625</c:v>
+                  <c:v>0.81045751633986929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83088235294117652</c:v>
+                  <c:v>0.83050847457627119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90756302521008403</c:v>
+                  <c:v>0.83687943262411346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,34 +932,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.70440251572327039</c:v>
+                  <c:v>0.71257485029940115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70394736842105265</c:v>
+                  <c:v>0.72789115646258506</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7483443708609272</c:v>
+                  <c:v>0.71621621621621623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70807453416149069</c:v>
+                  <c:v>0.72368421052631582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73652694610778446</c:v>
+                  <c:v>0.72988505747126442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77160493827160492</c:v>
+                  <c:v>0.73619631901840488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65340909090909094</c:v>
+                  <c:v>0.61290322580645162</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73758865248226946</c:v>
+                  <c:v>0.72611464968152861</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70322580645161292</c:v>
+                  <c:v>0.72560975609756095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67441860465116277</c:v>
+                  <c:v>0.68789808917197448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,34 +1004,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.86428571428571432</c:v>
+                  <c:v>0.85106382978723405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81954887218045114</c:v>
+                  <c:v>0.84507042253521125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85611510791366907</c:v>
+                  <c:v>0.86896551724137927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8896551724137931</c:v>
+                  <c:v>0.87671232876712324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8441558441558441</c:v>
+                  <c:v>0.88028169014084512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87121212121212122</c:v>
+                  <c:v>0.9242424242424242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80882352941176472</c:v>
+                  <c:v>0.87591240875912413</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8441558441558441</c:v>
+                  <c:v>0.87022900763358779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82978723404255317</c:v>
+                  <c:v>0.85064935064935066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88059701492537312</c:v>
+                  <c:v>0.87301587301587302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,34 +1076,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77037037037037037</c:v>
+                  <c:v>0.77397260273972601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72368421052631582</c:v>
+                  <c:v>0.7931034482758621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78014184397163122</c:v>
+                  <c:v>0.7814569536423841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76119402985074625</c:v>
+                  <c:v>0.76296296296296295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.765625</c:v>
+                  <c:v>0.86428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79054054054054057</c:v>
+                  <c:v>0.71621621621621623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.82258064516129037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74829931972789121</c:v>
+                  <c:v>0.80916030534351147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80821917808219179</c:v>
+                  <c:v>0.73856209150326801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73076923076923073</c:v>
+                  <c:v>0.78846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,34 +1148,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.79389312977099236</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8515625</c:v>
+                  <c:v>0.78676470588235292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87407407407407411</c:v>
+                  <c:v>0.83076923076923082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83673469387755106</c:v>
+                  <c:v>0.82269503546099287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86178861788617889</c:v>
+                  <c:v>0.83582089552238803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79577464788732399</c:v>
+                  <c:v>0.78985507246376807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83941605839416056</c:v>
+                  <c:v>0.88188976377952755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8014184397163121</c:v>
+                  <c:v>0.86330935251798557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84210526315789469</c:v>
+                  <c:v>0.78688524590163933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82307692307692304</c:v>
+                  <c:v>0.85496183206106868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,7 +2459,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2469,12 +2472,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Mean accuracy/precision</a:t>
+              <a:t>Mean test accuracy</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1400" b="1">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2493,7 +2496,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2520,7 +2523,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>spine-dist</c:v>
+            <c:v>Spine-dist</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2532,6 +2535,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$3:$M$3</c:f>
@@ -2562,19 +2623,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.85623846140550197</c:v>
+                  <c:v>0.85215527522749035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71337008600224072</c:v>
+                  <c:v>0.70989735307517043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85046275072137612</c:v>
+                  <c:v>0.87161428527721529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76861100618738243</c:v>
+                  <c:v>0.78507624785924734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83156247877616718</c:v>
+                  <c:v>0.82929511343589546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2601,6 +2662,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$I$3:$M$3</c:f>
@@ -2631,19 +2750,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.83315483487459996</c:v>
+                  <c:v>0.83336764548528564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7178339592064491</c:v>
+                  <c:v>0.71847964452888413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.861900905846812</c:v>
+                  <c:v>0.86222909832880945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75576123932164629</c:v>
+                  <c:v>0.75657402973192478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81771520864818381</c:v>
+                  <c:v>0.818133293013943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,8 +2774,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2871,7 +2991,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2884,14 +3004,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="1"/>
               <a:t>Max</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> acc/prec</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>test accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2908,7 +3034,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2935,7 +3061,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>spine_dist</c:v>
+            <c:v>Spine_dist</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2947,6 +3073,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Boxing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hhold</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hshake</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XOXO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$I$15:$M$15</c:f>
@@ -2954,19 +3161,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.9152542372881356</c:v>
+                  <c:v>0.89230769230769236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77160493827160492</c:v>
+                  <c:v>0.73619631901840488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8896551724137931</c:v>
+                  <c:v>0.9242424242424242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8125</c:v>
+                  <c:v>0.86428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87407407407407411</c:v>
+                  <c:v>0.88188976377952755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2981,7 +3188,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>no_dist</c:v>
+            <c:v>No_dist</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2993,6 +3200,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Boxing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Facing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hhold</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hshake</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XOXO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$V$15:$Z$15</c:f>
@@ -3024,8 +3312,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -7099,15 +7388,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -7274,41 +7563,41 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>0.88842688842688844</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.78762306610407873</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.9427480916030534</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.83231707317073167</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.91791044776119401</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.85570469798657722</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.90940766550522645</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.81506849315068497</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.70440251572327039</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.86428571428571432</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.77037037037037037</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.79389312977099236</v>
+      <c r="B4" s="25">
+        <v>0.88496188496188499</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.80590717299578063</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.92222222222222228</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.90209790209790208</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.85906040268456374</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.89273356401384085</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.71257485029940115</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.77397260273972601</v>
+      </c>
+      <c r="M4" s="25">
+        <v>0.84</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="4">
@@ -7349,41 +7638,41 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
-        <v>0.88981288981288986</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.77918424753867788</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.94296577946768056</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.8303571428571429</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.92226148409893993</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.85521885521885521</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.81506849315068497</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.70394736842105265</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.81954887218045114</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.72368421052631582</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.8515625</v>
+      <c r="B5" s="25">
+        <v>0.88496188496188499</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.80028129395218006</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.94318181818181823</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.83489096573208721</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.93560606060606055</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.83</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.72789115646258506</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0.78676470588235292</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="4">
@@ -7424,41 +7713,41 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>0.8787248787248787</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.81715893108298177</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.93846153846153846</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.81976744186046513</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.90942028985507251</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.9054545454545454</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.83448275862068966</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.7483443708609272</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.85611510791366907</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.78014184397163122</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.87407407407407411</v>
+      <c r="B6" s="25">
+        <v>0.88357588357588357</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.80450070323488043</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.92170818505338081</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.8379204892966361</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.91821561338289959</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.83629893238434161</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.91228070175438591</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.83211678832116787</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0.71621621621621623</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.86896551724137927</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.7814569536423841</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0.83076923076923082</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="4">
@@ -7499,41 +7788,41 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>0.88426888426888428</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="25">
+        <v>0.8856548856548857</v>
+      </c>
+      <c r="C7" s="25">
         <v>0.810126582278481</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.93357933579335795</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.85046728971962615</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.8920863309352518</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.83870967741935487</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.92015209125475284</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.87096774193548387</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.70807453416149069</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.8896551724137931</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.76119402985074625</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.83673469387755106</v>
+      <c r="D7" s="25">
+        <v>0.92775665399239549</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.83483483483483478</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.90073529411764708</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0.86378737541528239</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.91605839416058399</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0.86861313868613144</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.72368421052631582</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.87671232876712324</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.76296296296296295</v>
+      </c>
+      <c r="M7" s="25">
+        <v>0.82269503546099287</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="4">
@@ -7574,41 +7863,41 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>0.8925848925848926</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.81434599156118148</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.93536121673003803</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.85942492012779548</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.91881918819188191</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.85947712418300659</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.87769784172661869</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.73652694610778446</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.8441558441558441</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.765625</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.86178861788617889</v>
+      <c r="B8" s="25">
+        <v>0.87525987525987525</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.82841068917018279</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.81097560975609762</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.86194029850746268</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.9051094890510949</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0.85950413223140498</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0.72988505747126442</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.88028169014084512</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.86428571428571432</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0.83582089552238803</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="4">
@@ -7649,41 +7938,41 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>0.88496188496188499</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.81293952180028128</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.93165467625899279</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.8173374613003096</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.93406593406593408</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.86738351254480284</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.88620689655172413</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.85039370078740162</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.77160493827160492</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.87121212121212122</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.79054054054054057</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.79577464788732399</v>
+      <c r="B9" s="25">
+        <v>0.87941787941787941</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.80590717299578063</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.93283582089552242</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.8537414965986394</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.90252707581227432</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.82747603833865813</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.89003436426116833</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0.89230769230769236</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0.73619631901840488</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.9242424242424242</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0.71621621621621623</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0.78985507246376807</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="4">
@@ -7724,41 +8013,41 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
-        <v>0.8863478863478863</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.79465541490857949</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.90592334494773519</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.85626911314984711</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.92170818505338081</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.85198555956678701</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.90036900369003692</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.65340909090909094</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.80882352941176472</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.8125</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.83941605839416056</v>
+      <c r="B10" s="25">
+        <v>0.89397089397089402</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.79606188466947958</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.92907801418439717</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.83908045977011492</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.92057761732851984</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.921875</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.86131386861313863</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0.61290322580645162</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.87591240875912413</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0.82258064516129037</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0.88188976377952755</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="4">
@@ -7799,41 +8088,41 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
-        <v>0.89119889119889117</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.79606188466947958</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.96564885496183206</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.83734939759036142</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.91603053435114501</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.89761092150170652</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.8515625</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.73758865248226946</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.8441558441558441</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.74829931972789121</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.8014184397163121</v>
+      <c r="B11" s="25">
+        <v>0.8787248787248787</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.81293952180028128</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.93680297397769519</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.838006230529595</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.90217391304347827</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.82903225806451608</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.90262172284644193</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.81045751633986929</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0.72611464968152861</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.87022900763358779</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.80916030534351147</v>
+      </c>
+      <c r="M11" s="25">
+        <v>0.86330935251798557</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="4">
@@ -7874,41 +8163,41 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>0.89327789327789331</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.80028129395218006</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.93238434163701067</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.85624999999999996</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.91134751773049649</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.92142857142857137</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.83088235294117652</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.70322580645161292</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.82978723404255317</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.80821917808219179</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.84210526315789469</v>
+      <c r="B12" s="25">
+        <v>0.88426888426888428</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.78340365682137836</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.9263157894736842</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.84590163934426232</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.89849624060150379</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0.85517241379310349</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.89898989898989901</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.83050847457627119</v>
+      </c>
+      <c r="J12" s="25">
+        <v>0.72560975609756095</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.85064935064935066</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0.73856209150326801</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0.78688524590163933</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="4">
@@ -7949,41 +8238,41 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
-        <v>0.8856548856548857</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.79184247538677921</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.93308550185873607</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.82674772036474165</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.88771929824561402</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.8941605839416058</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.89860139860139865</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.90756302521008403</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.67441860465116277</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0.88059701492537312</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0.82307692307692304</v>
+      <c r="B13" s="25">
+        <v>0.88011088011088012</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.80309423347398035</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.93207547169811322</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.84355828220858897</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.90140845070422537</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.84042553191489366</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.89160839160839156</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.83687943262411346</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.68789808917197448</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.87301587301587302</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.78846153846153844</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0.85496183206106868</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="8">
@@ -8028,101 +8317,101 @@
         <v>11</v>
       </c>
       <c r="B14" s="10">
-        <f>GEOMEAN(B4:B13)</f>
-        <v>0.8875159588285072</v>
+        <f>AVERAGE(B4:B13)</f>
+        <v>0.88309078309078315</v>
       </c>
       <c r="C14" s="10">
-        <f t="shared" ref="C14:Z14" si="0">GEOMEAN(C4:C13)</f>
-        <v>0.80033025382808876</v>
+        <f t="shared" ref="C14:M14" si="0">AVERAGE(C4:C13)</f>
+        <v>0.80506329113924058</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
-        <v>0.93607807314093716</v>
+        <v>0.92767388544411333</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>0.83849445280620349</v>
+        <v>0.83922433414041886</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>0.91303969032235843</v>
+        <v>0.90850639741461237</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="0"/>
-        <v>0.85688020307322887</v>
+        <v>0.84781932511028213</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0.90552644583929587</v>
+        <v>0.90292707103592773</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="0"/>
-        <v>0.85623846140550197</v>
+        <v>0.85215527522749035</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>0.71337008600224072</v>
+        <v>0.70989735307517043</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" si="0"/>
-        <v>0.85046275072137612</v>
+        <v>0.87161428527721529</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="0"/>
-        <v>0.76861100618738243</v>
+        <v>0.78507624785924734</v>
       </c>
       <c r="M14" s="10">
         <f t="shared" si="0"/>
-        <v>0.83156247877616718</v>
+        <v>0.82929511343589546</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.88384102604897852</v>
+        <f>AVERAGE(O4:O13)</f>
+        <v>0.88385308385308403</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.79498405030286323</v>
+        <f t="shared" ref="P14:Z14" si="1">AVERAGE(P4:P13)</f>
+        <v>0.79507735583684958</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.92792778794297359</v>
+        <f t="shared" si="1"/>
+        <v>0.92798135734897791</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.83825070552538783</v>
+        <f t="shared" si="1"/>
+        <v>0.83838370808181395</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.90455987954361194</v>
+        <f t="shared" si="1"/>
+        <v>0.90466104636655553</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.85695874512317705</v>
+        <f t="shared" si="1"/>
+        <v>0.85705566806923927</v>
       </c>
       <c r="U14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.9012128948649607</v>
+        <f t="shared" si="1"/>
+        <v>0.90128575729415561</v>
       </c>
       <c r="V14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.83315483487459996</v>
+        <f t="shared" si="1"/>
+        <v>0.83336764548528564</v>
       </c>
       <c r="W14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.7178339592064491</v>
+        <f t="shared" si="1"/>
+        <v>0.71847964452888413</v>
       </c>
       <c r="X14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.861900905846812</v>
+        <f t="shared" si="1"/>
+        <v>0.86222909832880945</v>
       </c>
       <c r="Y14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.75576123932164629</v>
+        <f t="shared" si="1"/>
+        <v>0.75657402973192478</v>
       </c>
       <c r="Z14" s="10">
-        <f t="shared" si="0"/>
-        <v>0.81771520864818381</v>
+        <f t="shared" si="1"/>
+        <v>0.818133293013943</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -8131,99 +8420,99 @@
       </c>
       <c r="B15" s="12">
         <f>MAX(B4:B13)</f>
-        <v>0.89327789327789331</v>
+        <v>0.89397089397089402</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" ref="C15:Z15" si="1">MAX(C4:C13)</f>
-        <v>0.81715893108298177</v>
+        <f t="shared" ref="C15:Z15" si="2">MAX(C4:C13)</f>
+        <v>0.82841068917018279</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.96564885496183206</v>
+        <f t="shared" si="2"/>
+        <v>0.94318181818181823</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.85942492012779548</v>
+        <f t="shared" si="2"/>
+        <v>0.8537414965986394</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.93406593406593408</v>
+        <f t="shared" si="2"/>
+        <v>0.93560606060606055</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.8941605839416058</v>
+        <f t="shared" si="2"/>
+        <v>0.875</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.92142857142857137</v>
+        <f t="shared" si="2"/>
+        <v>0.921875</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.9152542372881356</v>
+        <f t="shared" si="2"/>
+        <v>0.89230769230769236</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.77160493827160492</v>
+        <f t="shared" si="2"/>
+        <v>0.73619631901840488</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.8896551724137931</v>
+        <f t="shared" si="2"/>
+        <v>0.9242424242424242</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.8125</v>
+        <f t="shared" si="2"/>
+        <v>0.86428571428571432</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.87407407407407411</v>
+        <f t="shared" si="2"/>
+        <v>0.88188976377952755</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88911988911988915</v>
       </c>
       <c r="P15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81715893108298177</v>
       </c>
       <c r="Q15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93939393939393945</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85126582278481011</v>
       </c>
       <c r="S15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93493150684931503</v>
       </c>
       <c r="T15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87625418060200666</v>
       </c>
       <c r="U15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9154411764705882</v>
       </c>
       <c r="V15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85815602836879434</v>
       </c>
       <c r="W15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76774193548387093</v>
       </c>
       <c r="X15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8896551724137931</v>
       </c>
       <c r="Y15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81294964028776984</v>
       </c>
       <c r="Z15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85915492957746475</v>
       </c>
     </row>
